--- a/Docs/CAN_Msg.xlsx
+++ b/Docs/CAN_Msg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\git\CBFirmware\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D053A5-7C84-487E-BE5E-67B831A55905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2EFF318-1523-4521-B761-4A90BC88A6E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="2100" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="54">
   <si>
     <t>Функция</t>
   </si>
@@ -109,6 +109,84 @@
   </si>
   <si>
     <t>Под вопросом</t>
+  </si>
+  <si>
+    <t>HIGHT NIBBLE</t>
+  </si>
+  <si>
+    <t>b0</t>
+  </si>
+  <si>
+    <t>b1</t>
+  </si>
+  <si>
+    <t>b2</t>
+  </si>
+  <si>
+    <t>b3</t>
+  </si>
+  <si>
+    <t>b4</t>
+  </si>
+  <si>
+    <t>b5</t>
+  </si>
+  <si>
+    <t>b6</t>
+  </si>
+  <si>
+    <t>b7</t>
+  </si>
+  <si>
+    <t>LO NIBBLE</t>
+  </si>
+  <si>
+    <t>0xF</t>
+  </si>
+  <si>
+    <t>0x1</t>
+  </si>
+  <si>
+    <t>0x2</t>
+  </si>
+  <si>
+    <t>0x4</t>
+  </si>
+  <si>
+    <t>0x0</t>
+  </si>
+  <si>
+    <t>0x3</t>
+  </si>
+  <si>
+    <t>0x5</t>
+  </si>
+  <si>
+    <t>0x6</t>
+  </si>
+  <si>
+    <t>0x7</t>
+  </si>
+  <si>
+    <t>0x8</t>
+  </si>
+  <si>
+    <t>0x9</t>
+  </si>
+  <si>
+    <t>0xA</t>
+  </si>
+  <si>
+    <t>0xB</t>
+  </si>
+  <si>
+    <t>0xC</t>
+  </si>
+  <si>
+    <t>0xD</t>
+  </si>
+  <si>
+    <t>0xE</t>
   </si>
 </sst>
 </file>
@@ -130,7 +208,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -155,8 +233,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -164,11 +248,180 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -178,6 +431,54 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -458,10 +759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,25 +773,26 @@
     <col min="4" max="10" width="9.140625" style="1"/>
     <col min="11" max="11" width="118.7109375" customWidth="1"/>
     <col min="14" max="14" width="27.5703125" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -508,24 +810,49 @@
       <c r="K1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="10"/>
+      <c r="P1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="W1" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -547,24 +874,37 @@
       <c r="N2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2" s="9"/>
+      <c r="P2" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="18"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -586,24 +926,43 @@
       <c r="N3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="19">
+        <v>0</v>
+      </c>
+      <c r="R3" s="19">
+        <v>0</v>
+      </c>
+      <c r="S3" s="19">
+        <v>0</v>
+      </c>
+      <c r="T3" s="29"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="31"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -621,8 +980,464 @@
       <c r="K4" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="O4" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="22">
+        <v>0</v>
+      </c>
+      <c r="R4" s="22">
+        <v>0</v>
+      </c>
+      <c r="S4" s="23">
+        <v>1</v>
+      </c>
+      <c r="T4" s="32"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="25"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="O5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="22">
+        <v>0</v>
+      </c>
+      <c r="R5" s="23">
+        <v>1</v>
+      </c>
+      <c r="S5" s="22">
+        <v>0</v>
+      </c>
+      <c r="T5" s="33"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="21"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="O6" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="22">
+        <v>0</v>
+      </c>
+      <c r="R6" s="23">
+        <v>1</v>
+      </c>
+      <c r="S6" s="23">
+        <v>1</v>
+      </c>
+      <c r="T6" s="32"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="24"/>
+      <c r="W6" s="25"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="O7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="P7" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="23">
+        <v>1</v>
+      </c>
+      <c r="R7" s="22">
+        <v>0</v>
+      </c>
+      <c r="S7" s="22">
+        <v>0</v>
+      </c>
+      <c r="T7" s="33"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="21"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="O8" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="P8" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="23">
+        <v>1</v>
+      </c>
+      <c r="R8" s="22">
+        <v>0</v>
+      </c>
+      <c r="S8" s="23">
+        <v>1</v>
+      </c>
+      <c r="T8" s="32"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="25"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="O9" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="P9" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="23">
+        <v>1</v>
+      </c>
+      <c r="R9" s="23">
+        <v>1</v>
+      </c>
+      <c r="S9" s="22">
+        <v>0</v>
+      </c>
+      <c r="T9" s="33"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="21"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="O10" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="P10" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="23">
+        <v>1</v>
+      </c>
+      <c r="R10" s="23">
+        <v>1</v>
+      </c>
+      <c r="S10" s="23">
+        <v>1</v>
+      </c>
+      <c r="T10" s="32"/>
+      <c r="U10" s="24"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="25"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="O11" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="P11" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="22">
+        <v>0</v>
+      </c>
+      <c r="R11" s="22">
+        <v>0</v>
+      </c>
+      <c r="S11" s="22">
+        <v>0</v>
+      </c>
+      <c r="T11" s="33"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="21"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="O12" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="P12" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="22">
+        <v>0</v>
+      </c>
+      <c r="R12" s="22">
+        <v>0</v>
+      </c>
+      <c r="S12" s="23">
+        <v>1</v>
+      </c>
+      <c r="T12" s="32"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="24"/>
+      <c r="W12" s="25"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="O13" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="P13" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="22">
+        <v>0</v>
+      </c>
+      <c r="R13" s="23">
+        <v>1</v>
+      </c>
+      <c r="S13" s="22">
+        <v>0</v>
+      </c>
+      <c r="T13" s="33"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="21"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="O14" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="P14" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="22">
+        <v>0</v>
+      </c>
+      <c r="R14" s="23">
+        <v>1</v>
+      </c>
+      <c r="S14" s="23">
+        <v>1</v>
+      </c>
+      <c r="T14" s="33"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="21"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="O15" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="P15" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="23">
+        <v>1</v>
+      </c>
+      <c r="R15" s="22">
+        <v>0</v>
+      </c>
+      <c r="S15" s="22">
+        <v>0</v>
+      </c>
+      <c r="T15" s="33"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="21"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="O16" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="P16" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="23">
+        <v>1</v>
+      </c>
+      <c r="R16" s="22">
+        <v>0</v>
+      </c>
+      <c r="S16" s="23">
+        <v>1</v>
+      </c>
+      <c r="T16" s="33"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="21"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="O17" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="23">
+        <v>1</v>
+      </c>
+      <c r="R17" s="23">
+        <v>1</v>
+      </c>
+      <c r="S17" s="22">
+        <v>0</v>
+      </c>
+      <c r="T17" s="33"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="21"/>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="O18" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="P18" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="26">
+        <v>1</v>
+      </c>
+      <c r="R18" s="26">
+        <v>1</v>
+      </c>
+      <c r="S18" s="26">
+        <v>1</v>
+      </c>
+      <c r="T18" s="34"/>
+      <c r="U18" s="27"/>
+      <c r="V18" s="27"/>
+      <c r="W18" s="28"/>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="T12:W12"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:W2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Docs/CAN_Msg.xlsx
+++ b/Docs/CAN_Msg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\git\CBFirmware\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2EFF318-1523-4521-B761-4A90BC88A6E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A71BF5-85E9-422A-9EDB-981AA7BD07DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2100" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="71">
   <si>
     <t>Функция</t>
   </si>
@@ -84,12 +84,6 @@
     <t>EF</t>
   </si>
   <si>
-    <t>F8</t>
-  </si>
-  <si>
-    <t>F9</t>
-  </si>
-  <si>
     <t>00</t>
   </si>
   <si>
@@ -187,6 +181,63 @@
   </si>
   <si>
     <t>0xE</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>5A</t>
+  </si>
+  <si>
+    <t>Дальний</t>
+  </si>
+  <si>
+    <t>Дальний выключен</t>
+  </si>
+  <si>
+    <t>Просто наличие пакета</t>
+  </si>
+  <si>
+    <t>d2</t>
+  </si>
+  <si>
+    <t>левый поворотник горит (когда выключается опять меняется на CA</t>
+  </si>
+  <si>
+    <t>e2</t>
+  </si>
+  <si>
+    <t>правый поворотник горит (когда выкл. СА)</t>
+  </si>
+  <si>
+    <t>ea</t>
+  </si>
+  <si>
+    <t>когда аварийка горит</t>
+  </si>
+  <si>
+    <t>FD</t>
+  </si>
+  <si>
+    <t>нажата кнопка info</t>
+  </si>
+  <si>
+    <t>10C</t>
+  </si>
+  <si>
+    <t>00-!0</t>
+  </si>
+  <si>
+    <t>обороты двигателя</t>
+  </si>
+  <si>
+    <t>долго нажата кнопка</t>
   </si>
 </sst>
 </file>
@@ -208,7 +259,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -239,6 +290,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -421,7 +478,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -440,15 +497,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -460,12 +508,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -474,11 +516,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -762,23 +820,23 @@
   <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="9.140625" style="1" customWidth="1"/>
-    <col min="4" max="10" width="9.140625" style="1"/>
-    <col min="11" max="11" width="118.7109375" customWidth="1"/>
-    <col min="14" max="14" width="27.5703125" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="1"/>
+    <col min="3" max="3" width="9.109375" style="1" customWidth="1"/>
+    <col min="4" max="10" width="9.109375" style="1"/>
+    <col min="11" max="11" width="118.6640625" customWidth="1"/>
+    <col min="14" max="14" width="27.5546875" customWidth="1"/>
+    <col min="15" max="15" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -812,31 +870,31 @@
       </c>
       <c r="O1" s="10"/>
       <c r="P1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="S1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="T1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="U1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="V1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="W1" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="V1" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="W1" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -850,12 +908,12 @@
         <v>12</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -868,27 +926,27 @@
         <v>16</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="9"/>
+      <c r="P2" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="9"/>
-      <c r="P2" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="18"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="34"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -902,13 +960,13 @@
         <v>12</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>19</v>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>15</v>
@@ -920,33 +978,33 @@
         <v>17</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M3" s="6"/>
       <c r="N3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="P3" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="19">
-        <v>0</v>
-      </c>
-      <c r="R3" s="19">
-        <v>0</v>
-      </c>
-      <c r="S3" s="19">
-        <v>0</v>
-      </c>
-      <c r="T3" s="29"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="31"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="P3" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="16">
+        <v>0</v>
+      </c>
+      <c r="R3" s="16">
+        <v>0</v>
+      </c>
+      <c r="S3" s="16">
+        <v>0</v>
+      </c>
+      <c r="T3" s="24"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="26"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -960,13 +1018,13 @@
         <v>12</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>20</v>
+      <c r="G4" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>15</v>
@@ -978,451 +1036,527 @@
         <v>18</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="P4" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="22">
-        <v>0</v>
-      </c>
-      <c r="R4" s="22">
-        <v>0</v>
-      </c>
-      <c r="S4" s="23">
-        <v>1</v>
-      </c>
-      <c r="T4" s="32"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="25"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="P4" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="19">
+        <v>0</v>
+      </c>
+      <c r="R4" s="19">
+        <v>0</v>
+      </c>
+      <c r="S4" s="20">
+        <v>1</v>
+      </c>
+      <c r="T4" s="29"/>
+      <c r="U4" s="30"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="31"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
+      <c r="H5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="O5" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="P5" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="22">
-        <v>0</v>
-      </c>
-      <c r="R5" s="23">
-        <v>1</v>
-      </c>
-      <c r="S5" s="22">
-        <v>0</v>
-      </c>
-      <c r="T5" s="33"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="21"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="P5" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="19">
+        <v>0</v>
+      </c>
+      <c r="R5" s="20">
+        <v>1</v>
+      </c>
+      <c r="S5" s="19">
+        <v>0</v>
+      </c>
+      <c r="T5" s="27"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="18"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
+      <c r="H6" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="O6" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="P6" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="22">
-        <v>0</v>
-      </c>
-      <c r="R6" s="23">
-        <v>1</v>
-      </c>
-      <c r="S6" s="23">
-        <v>1</v>
-      </c>
-      <c r="T6" s="32"/>
-      <c r="U6" s="24"/>
-      <c r="V6" s="24"/>
-      <c r="W6" s="25"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="P6" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="19">
+        <v>0</v>
+      </c>
+      <c r="R6" s="20">
+        <v>1</v>
+      </c>
+      <c r="S6" s="20">
+        <v>1</v>
+      </c>
+      <c r="T6" s="29"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="31"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="O7" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="P7" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="23">
-        <v>1</v>
-      </c>
-      <c r="R7" s="22">
-        <v>0</v>
-      </c>
-      <c r="S7" s="22">
-        <v>0</v>
-      </c>
-      <c r="T7" s="33"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="21"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="P7" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="20">
+        <v>1</v>
+      </c>
+      <c r="R7" s="19">
+        <v>0</v>
+      </c>
+      <c r="S7" s="19">
+        <v>0</v>
+      </c>
+      <c r="T7" s="27"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="18"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="O8" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="P8" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="23">
-        <v>1</v>
-      </c>
-      <c r="R8" s="22">
-        <v>0</v>
-      </c>
-      <c r="S8" s="23">
-        <v>1</v>
-      </c>
-      <c r="T8" s="32"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="25"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="P8" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="20">
+        <v>1</v>
+      </c>
+      <c r="R8" s="19">
+        <v>0</v>
+      </c>
+      <c r="S8" s="20">
+        <v>1</v>
+      </c>
+      <c r="T8" s="29"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="31"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="O9" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="P9" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="23">
-        <v>1</v>
-      </c>
-      <c r="R9" s="23">
-        <v>1</v>
-      </c>
-      <c r="S9" s="22">
-        <v>0</v>
-      </c>
-      <c r="T9" s="33"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="20"/>
-      <c r="W9" s="21"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="P9" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="20">
+        <v>1</v>
+      </c>
+      <c r="R9" s="20">
+        <v>1</v>
+      </c>
+      <c r="S9" s="19">
+        <v>0</v>
+      </c>
+      <c r="T9" s="27"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="18"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="O10" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="P10" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="23">
-        <v>1</v>
-      </c>
-      <c r="R10" s="23">
-        <v>1</v>
-      </c>
-      <c r="S10" s="23">
-        <v>1</v>
-      </c>
-      <c r="T10" s="32"/>
-      <c r="U10" s="24"/>
-      <c r="V10" s="24"/>
-      <c r="W10" s="25"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+        <v>44</v>
+      </c>
+      <c r="P10" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="20">
+        <v>1</v>
+      </c>
+      <c r="R10" s="20">
+        <v>1</v>
+      </c>
+      <c r="S10" s="20">
+        <v>1</v>
+      </c>
+      <c r="T10" s="29"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="30"/>
+      <c r="W10" s="31"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="O11" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="P11" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="22">
-        <v>0</v>
-      </c>
-      <c r="R11" s="22">
-        <v>0</v>
-      </c>
-      <c r="S11" s="22">
-        <v>0</v>
-      </c>
-      <c r="T11" s="33"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="20"/>
-      <c r="W11" s="21"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="P11" s="20">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="19">
+        <v>0</v>
+      </c>
+      <c r="R11" s="19">
+        <v>0</v>
+      </c>
+      <c r="S11" s="19">
+        <v>0</v>
+      </c>
+      <c r="T11" s="27"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="18"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
+      <c r="I12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K12" t="s">
+        <v>57</v>
+      </c>
       <c r="O12" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="P12" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="22">
-        <v>0</v>
-      </c>
-      <c r="R12" s="22">
-        <v>0</v>
-      </c>
-      <c r="S12" s="23">
-        <v>1</v>
-      </c>
-      <c r="T12" s="32"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="25"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="P12" s="20">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="19">
+        <v>0</v>
+      </c>
+      <c r="R12" s="19">
+        <v>0</v>
+      </c>
+      <c r="S12" s="20">
+        <v>1</v>
+      </c>
+      <c r="T12" s="29"/>
+      <c r="U12" s="30"/>
+      <c r="V12" s="30"/>
+      <c r="W12" s="31"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="O13" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="P13" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="22">
-        <v>0</v>
-      </c>
-      <c r="R13" s="23">
-        <v>1</v>
-      </c>
-      <c r="S13" s="22">
-        <v>0</v>
-      </c>
-      <c r="T13" s="33"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
-      <c r="W13" s="21"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="P13" s="20">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="19">
+        <v>0</v>
+      </c>
+      <c r="R13" s="20">
+        <v>1</v>
+      </c>
+      <c r="S13" s="19">
+        <v>0</v>
+      </c>
+      <c r="T13" s="27"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="18"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
+      <c r="K14" t="s">
+        <v>58</v>
+      </c>
       <c r="O14" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="P14" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="22">
-        <v>0</v>
-      </c>
-      <c r="R14" s="23">
-        <v>1</v>
-      </c>
-      <c r="S14" s="23">
-        <v>1</v>
-      </c>
-      <c r="T14" s="33"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="20"/>
-      <c r="W14" s="21"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="P14" s="20">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="19">
+        <v>0</v>
+      </c>
+      <c r="R14" s="20">
+        <v>1</v>
+      </c>
+      <c r="S14" s="20">
+        <v>1</v>
+      </c>
+      <c r="T14" s="27"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="18"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="O15" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="P15" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="23">
-        <v>1</v>
-      </c>
-      <c r="R15" s="22">
-        <v>0</v>
-      </c>
-      <c r="S15" s="22">
-        <v>0</v>
-      </c>
-      <c r="T15" s="33"/>
-      <c r="U15" s="20"/>
-      <c r="V15" s="20"/>
-      <c r="W15" s="21"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="P15" s="20">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="20">
+        <v>1</v>
+      </c>
+      <c r="R15" s="19">
+        <v>0</v>
+      </c>
+      <c r="S15" s="19">
+        <v>0</v>
+      </c>
+      <c r="T15" s="27"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="18"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
+      <c r="J16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K16" t="s">
+        <v>60</v>
+      </c>
       <c r="O16" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="P16" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="23">
-        <v>1</v>
-      </c>
-      <c r="R16" s="22">
-        <v>0</v>
-      </c>
-      <c r="S16" s="23">
-        <v>1</v>
-      </c>
-      <c r="T16" s="33"/>
-      <c r="U16" s="20"/>
-      <c r="V16" s="20"/>
-      <c r="W16" s="21"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="P16" s="20">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="20">
+        <v>1</v>
+      </c>
+      <c r="R16" s="19">
+        <v>0</v>
+      </c>
+      <c r="S16" s="20">
+        <v>1</v>
+      </c>
+      <c r="T16" s="27"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="18"/>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
+      <c r="J17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K17" t="s">
+        <v>62</v>
+      </c>
       <c r="O17" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="P17" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="23">
-        <v>1</v>
-      </c>
-      <c r="R17" s="23">
-        <v>1</v>
-      </c>
-      <c r="S17" s="22">
-        <v>0</v>
-      </c>
-      <c r="T17" s="33"/>
-      <c r="U17" s="20"/>
-      <c r="V17" s="20"/>
-      <c r="W17" s="21"/>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="P17" s="20">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="20">
+        <v>1</v>
+      </c>
+      <c r="R17" s="20">
+        <v>1</v>
+      </c>
+      <c r="S17" s="19">
+        <v>0</v>
+      </c>
+      <c r="T17" s="27"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="18"/>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
+      <c r="J18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K18" t="s">
+        <v>64</v>
+      </c>
       <c r="O18" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="P18" s="26">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="26">
-        <v>1</v>
-      </c>
-      <c r="R18" s="26">
-        <v>1</v>
-      </c>
-      <c r="S18" s="26">
-        <v>1</v>
-      </c>
-      <c r="T18" s="34"/>
-      <c r="U18" s="27"/>
-      <c r="V18" s="27"/>
-      <c r="W18" s="28"/>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="P18" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="21">
+        <v>1</v>
+      </c>
+      <c r="R18" s="21">
+        <v>1</v>
+      </c>
+      <c r="S18" s="21">
+        <v>1</v>
+      </c>
+      <c r="T18" s="28"/>
+      <c r="U18" s="22"/>
+      <c r="V18" s="22"/>
+      <c r="W18" s="23"/>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="F23" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="K23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
     </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
     </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
     </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
     </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1430,13 +1564,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:W2"/>
     <mergeCell ref="T6:W6"/>
     <mergeCell ref="T8:W8"/>
     <mergeCell ref="T10:W10"/>
     <mergeCell ref="T12:W12"/>
     <mergeCell ref="T4:W4"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="T2:W2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
